--- a/public/template_kategori.xlsx
+++ b/public/template_kategori.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\PWL_POS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{468DBBE7-82BE-4190-AE14-9F8BFAD8B71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200350B-48EC-4EF4-AC9D-B7ADEFD81F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED40342B-F74B-488A-B16C-9800D84B3296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ED40342B-F74B-488A-B16C-9800D84B3296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>kategori_kode</t>
   </si>
@@ -42,22 +33,28 @@
     <t>kategori_nama</t>
   </si>
   <si>
-    <t>KSM006</t>
-  </si>
-  <si>
-    <t>Sembako</t>
-  </si>
-  <si>
-    <t>KPM007</t>
-  </si>
-  <si>
-    <t>Perlengkapan Mandi dan Mencuci</t>
-  </si>
-  <si>
-    <t>KBD008</t>
-  </si>
-  <si>
-    <t>Bumbu Dapur</t>
+    <t>TOYS007</t>
+  </si>
+  <si>
+    <t>Mainan Anak</t>
+  </si>
+  <si>
+    <t>BOOK008</t>
+  </si>
+  <si>
+    <t>TOOL009</t>
+  </si>
+  <si>
+    <t>MEDC010</t>
+  </si>
+  <si>
+    <t>Buku &amp; Alat Tulis</t>
+  </si>
+  <si>
+    <t>Peralatan Pertukangan</t>
+  </si>
+  <si>
+    <t>Obat &amp; Kesehatan</t>
   </si>
 </sst>
 </file>
@@ -418,19 +415,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF199A9-F6A6-4207-A1DB-1AF5A4CAF372}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -446,20 +443,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
